--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABC/10/seed5/result_data_RandomForest.xlsx
@@ -536,7 +536,7 @@
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.5475</v>
+        <v>-11.62650000000001</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -553,7 +553,7 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.5148</v>
+        <v>-11.6674</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
@@ -567,7 +567,7 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>4.735300000000002</v>
+        <v>4.695200000000002</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-22.7305</v>
+        <v>-22.7526</v>
       </c>
       <c r="B12" t="n">
-        <v>5.8274</v>
+        <v>6.043800000000001</v>
       </c>
       <c r="C12" t="n">
         <v>-15.79</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>8.613700000000001</v>
+        <v>8.599700000000006</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -757,7 +757,7 @@
         <v>5.44</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.2563</v>
+        <v>-13.37569999999999</v>
       </c>
       <c r="D19" t="n">
         <v>-8.470000000000001</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.98139999999999</v>
+        <v>-13.1029</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
@@ -805,7 +805,7 @@
         <v>-20.95</v>
       </c>
       <c r="B22" t="n">
-        <v>4.941300000000004</v>
+        <v>4.681800000000005</v>
       </c>
       <c r="C22" t="n">
         <v>-10.65</v>
@@ -842,7 +842,7 @@
         <v>9.130000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.1516</v>
+        <v>-11.3859</v>
       </c>
       <c r="D24" t="n">
         <v>-9.24</v>
